--- a/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="~Cover" sheetId="1" r:id="rId2"/>
@@ -17,14 +17,11 @@
     <sheet name="$Cover" sheetId="6" r:id="rId4"/>
     <sheet name="~Jan" sheetId="2" r:id="rId5"/>
     <sheet name="Jan" sheetId="7" r:id="rId6"/>
-    <sheet name="$Jan" sheetId="8" r:id="rId7"/>
-    <sheet name="~Feb" sheetId="3" r:id="rId8"/>
-    <sheet name="Feb" sheetId="9" r:id="rId9"/>
-    <sheet name="$Feb" sheetId="10" r:id="rId10"/>
-    <sheet name="~March" sheetId="4" r:id="rId11"/>
-    <sheet name="March" sheetId="11" r:id="rId12"/>
-    <sheet name="$March" sheetId="12" r:id="rId13"/>
-    <sheet name="#March" sheetId="13" r:id="rId14"/>
+    <sheet name="~Feb" sheetId="3" r:id="rId7"/>
+    <sheet name="Feb" sheetId="8" r:id="rId8"/>
+    <sheet name="~March" sheetId="4" r:id="rId9"/>
+    <sheet name="March" sheetId="9" r:id="rId10"/>
+    <sheet name="#March" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -210,40 +207,96 @@
     <t>Leavers sent on later</t>
   </si>
   <si>
+    <t>4_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
+    <t>No Contributions columns (EE/ER/AVC) were found</t>
+  </si>
+  <si>
+    <t>No Forename column was found</t>
+  </si>
+  <si>
+    <t>No Surname column was found</t>
+  </si>
+  <si>
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>5_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
-    <t>No Contributions columns (EE/ER/AVC) were found</t>
-  </si>
-  <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
-    <t>2_Errors_found</t>
+    <t>Refno 0844251 does not exist for Scheme ID 601010
+Payroll number 27 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844252 does not exist for Scheme ID 601010
+Payroll number 8 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844253 does not exist for Scheme ID 601010
+Payroll number 20 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844255 does not exist for Scheme ID 601010
+Payroll number 35 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844256 does not exist for Scheme ID 601010
+Payroll number 12 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844257 does not exist for Scheme ID 601010
+Payroll number 34 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0867954 does not exist for Scheme ID 601010
+Payroll number 29 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0887365 does not exist for Scheme ID 601010
+Payroll number 45 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0904491 does not exist for Scheme ID 601010
+Payroll number 18 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0906094 does not exist for Scheme ID 601010
+Payroll number 44 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0910208 does not exist for Scheme ID 601010
+Payroll number 14 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0911028 does not exist for Scheme ID 601010
+Payroll number 21 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0911671 does not exist for Scheme ID 601010
+Member (Payroll=25) status is NL so name is not validated
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -256,13 +309,184 @@
   </si>
   <si>
     <t>3679.53</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1161520</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>ILIM Test 2</t>
+  </si>
+  <si>
+    <t>1158565</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>7,433.97</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1155233</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>4,282.75</t>
+  </si>
+  <si>
+    <t>ILIM R. O'Brien TVIN</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +505,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,13 +598,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -375,6 +611,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,529 +1000,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>188.45</v>
-      </c>
-      <c r="F2">
-        <v>94.23</v>
-      </c>
-      <c r="G2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>140.22</v>
-      </c>
-      <c r="F3">
-        <v>70.11</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>298.81</v>
-      </c>
-      <c r="F4">
-        <v>149.41</v>
-      </c>
-      <c r="G4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>198.39</v>
-      </c>
-      <c r="F5">
-        <v>99.2</v>
-      </c>
-      <c r="G5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>241.06</v>
-      </c>
-      <c r="F6">
-        <v>120.53</v>
-      </c>
-      <c r="G6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>216.13</v>
-      </c>
-      <c r="F7">
-        <v>108.06</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>160.48</v>
-      </c>
-      <c r="F8">
-        <v>80.24</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>259.24</v>
-      </c>
-      <c r="F9">
-        <v>129.62</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="16.25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>188.45</v>
-      </c>
-      <c r="G2">
-        <v>94.23</v>
-      </c>
-      <c r="H2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>140.22</v>
-      </c>
-      <c r="G3">
-        <v>70.11</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>298.81</v>
-      </c>
-      <c r="G4">
-        <v>149.41</v>
-      </c>
-      <c r="H4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>198.39</v>
-      </c>
-      <c r="G5">
-        <v>99.2</v>
-      </c>
-      <c r="H5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>241.06</v>
-      </c>
-      <c r="G6">
-        <v>120.53</v>
-      </c>
-      <c r="H6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>216.13</v>
-      </c>
-      <c r="G7">
-        <v>108.06</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>160.48</v>
-      </c>
-      <c r="G8">
-        <v>80.24</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>259.24</v>
-      </c>
-      <c r="G9">
-        <v>129.62</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="22.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1308,22 +1044,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1345,14 +1371,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="9.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1364,7 +1386,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1373,57 +1395,49 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1602,37 +1616,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="49.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1655,8 +1671,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1679,8 +1697,10 @@
         <v>719.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1703,8 +1723,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1727,8 +1749,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1758,55 +1782,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -2009,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2022,37 +1997,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="49.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2075,8 +2052,10 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -2099,8 +2078,10 @@
         <v>39.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -2123,8 +2104,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -2147,8 +2130,10 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -2171,8 +2156,10 @@
         <v>177.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2195,8 +2182,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -2221,6 +2210,232 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>188.45</v>
+      </c>
+      <c r="F2">
+        <v>94.23</v>
+      </c>
+      <c r="G2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>140.22</v>
+      </c>
+      <c r="F3">
+        <v>70.11</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>298.81</v>
+      </c>
+      <c r="F4">
+        <v>149.41</v>
+      </c>
+      <c r="G4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>198.39</v>
+      </c>
+      <c r="F5">
+        <v>99.2</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>241.06</v>
+      </c>
+      <c r="F6">
+        <v>120.53</v>
+      </c>
+      <c r="G6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>216.13</v>
+      </c>
+      <c r="F7">
+        <v>108.06</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>160.48</v>
+      </c>
+      <c r="F8">
+        <v>80.24</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>259.24</v>
+      </c>
+      <c r="F9">
+        <v>129.62</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -2228,44 +2443,251 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="52.375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>188.45</v>
+      </c>
+      <c r="G2">
+        <v>94.23</v>
+      </c>
+      <c r="H2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>140.22</v>
+      </c>
+      <c r="G3">
+        <v>70.11</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>298.81</v>
+      </c>
+      <c r="G4">
+        <v>149.41</v>
+      </c>
+      <c r="H4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>198.39</v>
+      </c>
+      <c r="G5">
+        <v>99.2</v>
+      </c>
+      <c r="H5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>241.06</v>
+      </c>
+      <c r="G6">
+        <v>120.53</v>
+      </c>
+      <c r="H6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>216.13</v>
+      </c>
+      <c r="G7">
+        <v>108.06</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>160.48</v>
+      </c>
+      <c r="G8">
+        <v>80.24</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>259.24</v>
+      </c>
+      <c r="G9">
+        <v>129.62</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="~Cover" sheetId="1" r:id="rId2"/>
@@ -17,11 +17,14 @@
     <sheet name="$Cover" sheetId="6" r:id="rId4"/>
     <sheet name="~Jan" sheetId="2" r:id="rId5"/>
     <sheet name="Jan" sheetId="7" r:id="rId6"/>
-    <sheet name="~Feb" sheetId="3" r:id="rId7"/>
-    <sheet name="Feb" sheetId="8" r:id="rId8"/>
-    <sheet name="~March" sheetId="4" r:id="rId9"/>
-    <sheet name="March" sheetId="9" r:id="rId10"/>
-    <sheet name="#March" sheetId="10" r:id="rId11"/>
+    <sheet name="$Jan" sheetId="11" r:id="rId7"/>
+    <sheet name="~Feb" sheetId="3" r:id="rId8"/>
+    <sheet name="Feb" sheetId="8" r:id="rId9"/>
+    <sheet name="$Feb" sheetId="12" r:id="rId10"/>
+    <sheet name="~March" sheetId="4" r:id="rId11"/>
+    <sheet name="March" sheetId="9" r:id="rId12"/>
+    <sheet name="$March" sheetId="13" r:id="rId13"/>
+    <sheet name="#March" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -207,7 +210,10 @@
     <t>Leavers sent on later</t>
   </si>
   <si>
-    <t>4_Errors_found</t>
+    <t>ISSUES FOUND</t>
+  </si>
+  <si>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -231,72 +237,10 @@
     <t>No Surname column was found</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
-  </si>
-  <si>
-    <t>Refno 0844251 does not exist for Scheme ID 601010
-Payroll number 27 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844252 does not exist for Scheme ID 601010
-Payroll number 8 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844253 does not exist for Scheme ID 601010
-Payroll number 20 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844255 does not exist for Scheme ID 601010
-Payroll number 35 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844256 does not exist for Scheme ID 601010
-Payroll number 12 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844257 does not exist for Scheme ID 601010
-Payroll number 34 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0867954 does not exist for Scheme ID 601010
-Payroll number 29 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0887365 does not exist for Scheme ID 601010
-Payroll number 45 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0904491 does not exist for Scheme ID 601010
-Payroll number 18 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0906094 does not exist for Scheme ID 601010
-Payroll number 44 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0910208 does not exist for Scheme ID 601010
-Payroll number 14 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0911028 does not exist for Scheme ID 601010
-Payroll number 21 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0911671 does not exist for Scheme ID 601010
-Member (Payroll=25) status is NL so name is not validated
-Member does not have open Paypoints</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -311,182 +255,14 @@
     <t>3679.53</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1161520</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
+    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,21 +281,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -598,10 +359,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -611,10 +375,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,25 +760,519 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>188.45</v>
+      </c>
+      <c r="F2">
+        <v>94.23</v>
+      </c>
+      <c r="G2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>140.22</v>
+      </c>
+      <c r="F3">
+        <v>70.11</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>298.81</v>
+      </c>
+      <c r="F4">
+        <v>149.41</v>
+      </c>
+      <c r="G4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>198.39</v>
+      </c>
+      <c r="F5">
+        <v>99.2</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>241.06</v>
+      </c>
+      <c r="F6">
+        <v>120.53</v>
+      </c>
+      <c r="G6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>216.13</v>
+      </c>
+      <c r="F7">
+        <v>108.06</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>160.48</v>
+      </c>
+      <c r="F8">
+        <v>80.24</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>259.24</v>
+      </c>
+      <c r="F9">
+        <v>129.62</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>188.45</v>
+      </c>
+      <c r="G2">
+        <v>94.23</v>
+      </c>
+      <c r="H2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>140.22</v>
+      </c>
+      <c r="G3">
+        <v>70.11</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>298.81</v>
+      </c>
+      <c r="G4">
+        <v>149.41</v>
+      </c>
+      <c r="H4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>198.39</v>
+      </c>
+      <c r="G5">
+        <v>99.2</v>
+      </c>
+      <c r="H5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>241.06</v>
+      </c>
+      <c r="G6">
+        <v>120.53</v>
+      </c>
+      <c r="H6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>216.13</v>
+      </c>
+      <c r="G7">
+        <v>108.06</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>160.48</v>
+      </c>
+      <c r="G8">
+        <v>80.24</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>259.24</v>
+      </c>
+      <c r="G9">
+        <v>129.62</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="22.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1044,312 +1298,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1335,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1386,7 +1354,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1395,49 +1363,57 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1616,39 +1592,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1671,10 +1645,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
-        <v>67</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1697,10 +1669,8 @@
         <v>719.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>68</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1723,10 +1693,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1749,10 +1717,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1782,6 +1748,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1984,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1997,39 +2002,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>71</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2052,10 +2055,8 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
-        <v>72</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -2078,10 +2079,8 @@
         <v>39.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>73</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -2104,10 +2103,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
-        <v>74</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -2130,10 +2127,8 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
-        <v>75</v>
-      </c>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -2156,10 +2151,8 @@
         <v>177.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
-        <v>76</v>
-      </c>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2182,10 +2175,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -2210,232 +2201,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>188.45</v>
-      </c>
-      <c r="F2">
-        <v>94.23</v>
-      </c>
-      <c r="G2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>140.22</v>
-      </c>
-      <c r="F3">
-        <v>70.11</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>298.81</v>
-      </c>
-      <c r="F4">
-        <v>149.41</v>
-      </c>
-      <c r="G4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>198.39</v>
-      </c>
-      <c r="F5">
-        <v>99.2</v>
-      </c>
-      <c r="G5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>241.06</v>
-      </c>
-      <c r="F6">
-        <v>120.53</v>
-      </c>
-      <c r="G6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>216.13</v>
-      </c>
-      <c r="F7">
-        <v>108.06</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>160.48</v>
-      </c>
-      <c r="F8">
-        <v>80.24</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>259.24</v>
-      </c>
-      <c r="F9">
-        <v>129.62</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -2443,251 +2208,34 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="52.375"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>188.45</v>
-      </c>
-      <c r="G2">
-        <v>94.23</v>
-      </c>
-      <c r="H2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>140.22</v>
-      </c>
-      <c r="G3">
-        <v>70.11</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>298.81</v>
-      </c>
-      <c r="G4">
-        <v>149.41</v>
-      </c>
-      <c r="H4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>198.39</v>
-      </c>
-      <c r="G5">
-        <v>99.2</v>
-      </c>
-      <c r="H5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>241.06</v>
-      </c>
-      <c r="G6">
-        <v>120.53</v>
-      </c>
-      <c r="H6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>216.13</v>
-      </c>
-      <c r="G7">
-        <v>108.06</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>160.48</v>
-      </c>
-      <c r="G8">
-        <v>80.24</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>259.24</v>
-      </c>
-      <c r="G9">
-        <v>129.62</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="~Cover" sheetId="1" r:id="rId2"/>
@@ -17,14 +17,11 @@
     <sheet name="$Cover" sheetId="6" r:id="rId4"/>
     <sheet name="~Jan" sheetId="2" r:id="rId5"/>
     <sheet name="Jan" sheetId="7" r:id="rId6"/>
-    <sheet name="$Jan" sheetId="11" r:id="rId7"/>
-    <sheet name="~Feb" sheetId="3" r:id="rId8"/>
-    <sheet name="Feb" sheetId="8" r:id="rId9"/>
-    <sheet name="$Feb" sheetId="12" r:id="rId10"/>
-    <sheet name="~March" sheetId="4" r:id="rId11"/>
-    <sheet name="March" sheetId="9" r:id="rId12"/>
-    <sheet name="$March" sheetId="13" r:id="rId13"/>
-    <sheet name="#March" sheetId="10" r:id="rId14"/>
+    <sheet name="~Feb" sheetId="3" r:id="rId7"/>
+    <sheet name="Feb" sheetId="8" r:id="rId8"/>
+    <sheet name="~March" sheetId="4" r:id="rId9"/>
+    <sheet name="March" sheetId="9" r:id="rId10"/>
+    <sheet name="#March" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -210,37 +207,96 @@
     <t>Leavers sent on later</t>
   </si>
   <si>
+    <t>4_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
+    <t>No Contributions columns (EE/ER/AVC) were found</t>
+  </si>
+  <si>
+    <t>No Forename column was found</t>
+  </si>
+  <si>
+    <t>No Surname column was found</t>
+  </si>
+  <si>
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>5_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
-    <t>No Contributions columns (EE/ER/AVC) were found</t>
-  </si>
-  <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Refno 0844251 does not exist for Scheme ID 601010
+Payroll number 27 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844252 does not exist for Scheme ID 601010
+Payroll number 8 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844253 does not exist for Scheme ID 601010
+Payroll number 20 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844255 does not exist for Scheme ID 601010
+Payroll number 35 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844256 does not exist for Scheme ID 601010
+Payroll number 12 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0844257 does not exist for Scheme ID 601010
+Payroll number 34 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0867954 does not exist for Scheme ID 601010
+Payroll number 29 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0887365 does not exist for Scheme ID 601010
+Payroll number 45 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0904491 does not exist for Scheme ID 601010
+Payroll number 18 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0906094 does not exist for Scheme ID 601010
+Payroll number 44 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0910208 does not exist for Scheme ID 601010
+Payroll number 14 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0911028 does not exist for Scheme ID 601010
+Payroll number 21 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0911671 does not exist for Scheme ID 601010
+Member (Payroll=25) status is NL so name is not validated
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -255,14 +311,179 @@
     <t>3679.53</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +502,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,13 +595,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -375,6 +608,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,519 +997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>188.45</v>
-      </c>
-      <c r="F2">
-        <v>94.23</v>
-      </c>
-      <c r="G2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>140.22</v>
-      </c>
-      <c r="F3">
-        <v>70.11</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>298.81</v>
-      </c>
-      <c r="F4">
-        <v>149.41</v>
-      </c>
-      <c r="G4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>198.39</v>
-      </c>
-      <c r="F5">
-        <v>99.2</v>
-      </c>
-      <c r="G5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>241.06</v>
-      </c>
-      <c r="F6">
-        <v>120.53</v>
-      </c>
-      <c r="G6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>216.13</v>
-      </c>
-      <c r="F7">
-        <v>108.06</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>160.48</v>
-      </c>
-      <c r="F8">
-        <v>80.24</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>259.24</v>
-      </c>
-      <c r="F9">
-        <v>129.62</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="16.25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>188.45</v>
-      </c>
-      <c r="G2">
-        <v>94.23</v>
-      </c>
-      <c r="H2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>140.22</v>
-      </c>
-      <c r="G3">
-        <v>70.11</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>298.81</v>
-      </c>
-      <c r="G4">
-        <v>149.41</v>
-      </c>
-      <c r="H4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>198.39</v>
-      </c>
-      <c r="G5">
-        <v>99.2</v>
-      </c>
-      <c r="H5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>241.06</v>
-      </c>
-      <c r="G6">
-        <v>120.53</v>
-      </c>
-      <c r="H6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>216.13</v>
-      </c>
-      <c r="G7">
-        <v>108.06</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>160.48</v>
-      </c>
-      <c r="G8">
-        <v>80.24</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>259.24</v>
-      </c>
-      <c r="G9">
-        <v>129.62</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="22.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1298,22 +1041,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1335,14 +1368,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="9.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1354,7 +1383,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1363,57 +1392,49 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1592,37 +1613,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="49.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1645,8 +1668,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1669,8 +1694,10 @@
         <v>719.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1693,8 +1720,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1717,8 +1746,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1748,45 +1779,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1989,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2002,37 +1994,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="49.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2049,10 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -2079,8 +2075,10 @@
         <v>39.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -2103,8 +2101,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -2127,8 +2127,10 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -2151,8 +2153,10 @@
         <v>177.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2175,8 +2179,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -2201,6 +2207,232 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>188.45</v>
+      </c>
+      <c r="F2">
+        <v>94.23</v>
+      </c>
+      <c r="G2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>140.22</v>
+      </c>
+      <c r="F3">
+        <v>70.11</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>298.81</v>
+      </c>
+      <c r="F4">
+        <v>149.41</v>
+      </c>
+      <c r="G4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>198.39</v>
+      </c>
+      <c r="F5">
+        <v>99.2</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>241.06</v>
+      </c>
+      <c r="F6">
+        <v>120.53</v>
+      </c>
+      <c r="G6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>216.13</v>
+      </c>
+      <c r="F7">
+        <v>108.06</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>160.48</v>
+      </c>
+      <c r="F8">
+        <v>80.24</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>259.24</v>
+      </c>
+      <c r="F9">
+        <v>129.62</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -2208,34 +2440,251 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="52.375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>188.45</v>
+      </c>
+      <c r="G2">
+        <v>94.23</v>
+      </c>
+      <c r="H2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>140.22</v>
+      </c>
+      <c r="G3">
+        <v>70.11</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>298.81</v>
+      </c>
+      <c r="G4">
+        <v>149.41</v>
+      </c>
+      <c r="H4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>198.39</v>
+      </c>
+      <c r="G5">
+        <v>99.2</v>
+      </c>
+      <c r="H5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>241.06</v>
+      </c>
+      <c r="G6">
+        <v>120.53</v>
+      </c>
+      <c r="H6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>216.13</v>
+      </c>
+      <c r="G7">
+        <v>108.06</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>160.48</v>
+      </c>
+      <c r="G8">
+        <v>80.24</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>259.24</v>
+      </c>
+      <c r="G9">
+        <v>129.62</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -563,10 +563,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -595,18 +595,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1060,31 +1063,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1669,7 +1672,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B3" t="s">
@@ -1695,7 +1698,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
@@ -1721,7 +1724,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
@@ -2050,7 +2053,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
@@ -2076,7 +2079,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
@@ -2128,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
@@ -2154,7 +2157,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
@@ -2506,7 +2509,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
@@ -2584,7 +2587,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
@@ -2610,7 +2613,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
@@ -2636,7 +2639,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
@@ -2662,7 +2665,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B9" t="s">

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_9/expected_aptrans_b6e69a92-eb69-4ed6-bf71-805fe69f2f3d.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="~Cover" sheetId="1" r:id="rId2"/>
@@ -17,11 +17,14 @@
     <sheet name="$Cover" sheetId="6" r:id="rId4"/>
     <sheet name="~Jan" sheetId="2" r:id="rId5"/>
     <sheet name="Jan" sheetId="7" r:id="rId6"/>
-    <sheet name="~Feb" sheetId="3" r:id="rId7"/>
-    <sheet name="Feb" sheetId="8" r:id="rId8"/>
-    <sheet name="~March" sheetId="4" r:id="rId9"/>
-    <sheet name="March" sheetId="9" r:id="rId10"/>
-    <sheet name="#March" sheetId="10" r:id="rId11"/>
+    <sheet name="$Jan" sheetId="8" r:id="rId7"/>
+    <sheet name="~Feb" sheetId="3" r:id="rId8"/>
+    <sheet name="Feb" sheetId="9" r:id="rId9"/>
+    <sheet name="$Feb" sheetId="10" r:id="rId10"/>
+    <sheet name="~March" sheetId="4" r:id="rId11"/>
+    <sheet name="March" sheetId="11" r:id="rId12"/>
+    <sheet name="$March" sheetId="12" r:id="rId13"/>
+    <sheet name="#March" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="73">
   <si>
     <t>PAYROLL</t>
   </si>
@@ -207,7 +210,10 @@
     <t>Leavers sent on later</t>
   </si>
   <si>
-    <t>4_Errors_found</t>
+    <t>ISSUES FOUND</t>
+  </si>
+  <si>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -231,72 +237,13 @@
     <t>No Surname column was found</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
-  </si>
-  <si>
-    <t>Refno 0844251 does not exist for Scheme ID 601010
-Payroll number 27 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844252 does not exist for Scheme ID 601010
-Payroll number 8 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844253 does not exist for Scheme ID 601010
-Payroll number 20 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844255 does not exist for Scheme ID 601010
-Payroll number 35 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844256 does not exist for Scheme ID 601010
-Payroll number 12 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0844257 does not exist for Scheme ID 601010
-Payroll number 34 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0867954 does not exist for Scheme ID 601010
-Payroll number 29 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0887365 does not exist for Scheme ID 601010
-Payroll number 45 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0904491 does not exist for Scheme ID 601010
-Payroll number 18 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0906094 does not exist for Scheme ID 601010
-Payroll number 44 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0910208 does not exist for Scheme ID 601010
-Payroll number 14 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0911028 does not exist for Scheme ID 601010
-Payroll number 21 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0911671 does not exist for Scheme ID 601010
-Member (Payroll=25) status is NL so name is not validated
-Member does not have open Paypoints</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -309,181 +256,13 @@
   </si>
   <si>
     <t>3679.53</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1178489</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>7,517.33</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1173971</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>1,533.32</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM Julne 2021</t>
-  </si>
-  <si>
-    <t>1173522</t>
-  </si>
-  <si>
-    <t>5,984.01</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,13 +286,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,26 +367,25 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,25 +771,529 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>188.45</v>
+      </c>
+      <c r="F2">
+        <v>94.23</v>
+      </c>
+      <c r="G2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>140.22</v>
+      </c>
+      <c r="F3">
+        <v>70.11</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>298.81</v>
+      </c>
+      <c r="F4">
+        <v>149.41</v>
+      </c>
+      <c r="G4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>198.39</v>
+      </c>
+      <c r="F5">
+        <v>99.2</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>241.06</v>
+      </c>
+      <c r="F6">
+        <v>120.53</v>
+      </c>
+      <c r="G6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>216.13</v>
+      </c>
+      <c r="F7">
+        <v>108.06</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>160.48</v>
+      </c>
+      <c r="F8">
+        <v>80.24</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>259.24</v>
+      </c>
+      <c r="F9">
+        <v>129.62</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>188.45</v>
+      </c>
+      <c r="G2">
+        <v>94.23</v>
+      </c>
+      <c r="H2">
+        <v>117.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>140.22</v>
+      </c>
+      <c r="G3">
+        <v>70.11</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>298.81</v>
+      </c>
+      <c r="G4">
+        <v>149.41</v>
+      </c>
+      <c r="H4">
+        <v>747.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>198.39</v>
+      </c>
+      <c r="G5">
+        <v>99.2</v>
+      </c>
+      <c r="H5">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>241.06</v>
+      </c>
+      <c r="G6">
+        <v>120.53</v>
+      </c>
+      <c r="H6">
+        <v>210.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>216.13</v>
+      </c>
+      <c r="G7">
+        <v>108.06</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>160.48</v>
+      </c>
+      <c r="G8">
+        <v>80.24</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>259.24</v>
+      </c>
+      <c r="G9">
+        <v>129.62</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="22.125"/>
-  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1044,312 +1319,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1356,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1386,7 +1375,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1395,49 +1384,57 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1616,12 +1613,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1645,10 +1642,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1671,10 +1666,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1697,10 +1690,8 @@
         <v>719.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="7" t="s">
-        <v>68</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1723,10 +1714,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>69</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1749,10 +1738,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
-      </c>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1782,6 +1769,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1984,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1997,12 +2033,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2026,10 +2062,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>71</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2052,10 +2086,8 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="7" t="s">
-        <v>72</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -2078,10 +2110,8 @@
         <v>39.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="7" t="s">
-        <v>73</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -2104,10 +2134,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -2130,10 +2158,8 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -2156,10 +2182,8 @@
         <v>177.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="7" t="s">
-        <v>76</v>
-      </c>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2182,10 +2206,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="7" t="s">
-        <v>77</v>
-      </c>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -2210,232 +2232,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>188.45</v>
-      </c>
-      <c r="F2">
-        <v>94.23</v>
-      </c>
-      <c r="G2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>140.22</v>
-      </c>
-      <c r="F3">
-        <v>70.11</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>298.81</v>
-      </c>
-      <c r="F4">
-        <v>149.41</v>
-      </c>
-      <c r="G4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>198.39</v>
-      </c>
-      <c r="F5">
-        <v>99.2</v>
-      </c>
-      <c r="G5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>241.06</v>
-      </c>
-      <c r="F6">
-        <v>120.53</v>
-      </c>
-      <c r="G6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>216.13</v>
-      </c>
-      <c r="F7">
-        <v>108.06</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>160.48</v>
-      </c>
-      <c r="F8">
-        <v>80.24</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>259.24</v>
-      </c>
-      <c r="F9">
-        <v>129.62</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -2443,251 +2239,44 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="52.375"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>188.45</v>
-      </c>
-      <c r="G2">
-        <v>94.23</v>
-      </c>
-      <c r="H2">
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>140.22</v>
-      </c>
-      <c r="G3">
-        <v>70.11</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>298.81</v>
-      </c>
-      <c r="G4">
-        <v>149.41</v>
-      </c>
-      <c r="H4">
-        <v>747.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>198.39</v>
-      </c>
-      <c r="G5">
-        <v>99.2</v>
-      </c>
-      <c r="H5">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>241.06</v>
-      </c>
-      <c r="G6">
-        <v>120.53</v>
-      </c>
-      <c r="H6">
-        <v>210.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>216.13</v>
-      </c>
-      <c r="G7">
-        <v>108.06</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>160.48</v>
-      </c>
-      <c r="G8">
-        <v>80.24</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>259.24</v>
-      </c>
-      <c r="G9">
-        <v>129.62</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
